--- a/for반복문 풀이_1.xlsx
+++ b/for반복문 풀이_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +225,42 @@
   </si>
   <si>
     <t>0 + 1 + 3 + 7 + 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로나눈 몫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 / 2를 했을때 정수값, 0안에 2가 몇번들어 있느냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 나누었을때 나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x / 2 했을때 x - 2 하고 남은 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x % 2 == 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1203,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1562,4 +1600,414 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>